--- a/biology/Botanique/Tremella_mesenterica/Tremella_mesenterica.xlsx
+++ b/biology/Botanique/Tremella_mesenterica/Tremella_mesenterica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tremella mesenterica
 Tremella mesenterica, la Trémelle mésentérique, est une espèce de champignons fongicoles (Fungi) basidiomycètes de la famille des Tremellaceae.
@@ -512,10 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tremella vient du latin tremere, « trembler », et du suffixe -ella, « petit », en référence au comportement de la chair gélatineuse, tremblotante, qui se déchire difficilement. L'épithète spécifique mesenterica vient du latin meso, « milieu » et du grec enteron, « intestin », et fait allusion à sa forme ressemblant au mésentère[1].
-Le champignon porte le nom vernaculaire de Beurre de sorcière[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tremella vient du latin tremere, « trembler », et du suffixe -ella, « petit », en référence au comportement de la chair gélatineuse, tremblotante, qui se déchire difficilement. L'épithète spécifique mesenterica vient du latin meso, « milieu » et du grec enteron, « intestin », et fait allusion à sa forme ressemblant au mésentère.
+Le champignon porte le nom vernaculaire de Beurre de sorcière.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trémelles sont des champignons très courants, qui ont une consistance gélatineuse et cartilagineuse au début et qui deviennent plus durs et cornés en séchant. Ils sont saprophytes, et mycoparasites d’autres champignons vivant sur le bois (notamment les corticiacées).
 </t>
@@ -575,15 +591,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La trémelle mésentérique est un champignon d’un beau jaune d’or à orangé devenant orangé foncé avec l’âge, dont le sporophore ressemble à une petite masse gélatineuse translucide faite de plis et de lobes, élastique et ferme, devenant plus coriace en vieillissant. Elle produit des spores blanches.
-Sa chair est comestible mais inodore et insipide[1].
+Sa chair est comestible mais inodore et insipide.
 Elle pousse toute l'année sur le bois des arbres coupés et des branches mortes mais aussi sur le bois des branches des arbres feuillus vivants.
-Confusion
-Ce champignon peut être confondu avec la Trémelle orangée, espèce plus grande et d'un orange plus foncé qui appartient aux mycètes communément appelés « champignons gelées », parmi lesquels on retrouve l'oreille de Judas[3]. Il peut également être confondu avec la Trémelle palmée (de), espèce qui pousse sur le bois de résineux[1].
-			Trémelle orangée.
-			Trémelle palmée.
 </t>
         </is>
       </c>
@@ -609,12 +623,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confusion</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon peut être confondu avec la Trémelle orangée, espèce plus grande et d'un orange plus foncé qui appartient aux mycètes communément appelés « champignons gelées », parmi lesquels on retrouve l'oreille de Judas. Il peut également être confondu avec la Trémelle palmée (de), espèce qui pousse sur le bois de résineux.
+			Trémelle orangée.
+			Trémelle palmée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tremella_mesenterica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tremella_mesenterica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un champignon comestible[4] mais sans intérêt/valeur gastronomique[4],[5] (sans saveur, ou saveur douce), considéré comme médiocre[4] mais pas classé parmi les toxiques[4]. Sa consistance gélatineuse est utilisée pour ajouter de la texture à des soupes et d'autres plats[1]. Des composés de ce champignons font l'objet de recherche en prévention du cancer[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un champignon comestible mais sans intérêt/valeur gastronomique, (sans saveur, ou saveur douce), considéré comme médiocre mais pas classé parmi les toxiques. Sa consistance gélatineuse est utilisée pour ajouter de la texture à des soupes et d'autres plats. Des composés de ce champignons font l'objet de recherche en prévention du cancer.
 </t>
         </is>
       </c>
